--- a/file.xlsx
+++ b/file.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>进行中的券</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>时间</t>
   </si>
@@ -33,37 +30,52 @@
     <t>积分数量</t>
   </si>
   <si>
+    <t>20191028</t>
+  </si>
+  <si>
+    <t>12931.10</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>4644.00</t>
+  </si>
+  <si>
+    <t>20191029</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>9288.00</t>
+  </si>
+  <si>
+    <t>20191030</t>
+  </si>
+  <si>
+    <t>20191031</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>20191101</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>20191102</t>
   </si>
   <si>
-    <t>232200</t>
-  </si>
-  <si>
-    <t>6020318</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
     <t>20191103</t>
   </si>
   <si>
-    <t>20191028</t>
-  </si>
-  <si>
-    <t>20191029</t>
-  </si>
-  <si>
-    <t>20191030</t>
-  </si>
-  <si>
-    <t>20191031</t>
+    <t>330</t>
+  </si>
+  <si>
+    <t>13932.00</t>
   </si>
 </sst>
 </file>
@@ -433,7 +445,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -445,135 +457,115 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s"/>
-      <c r="C1" t="s"/>
-      <c r="D1" t="s"/>
-      <c r="E1" t="s"/>
-      <c r="F1" t="s"/>
-      <c r="G1" t="s"/>
-      <c r="H1" t="s"/>
-      <c r="I1" t="s"/>
-      <c r="J1" t="s"/>
-      <c r="K1" t="s"/>
-      <c r="L1" t="s"/>
-      <c r="M1" t="s"/>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
